--- a/Capstone Status_11_March_2022.xlsx
+++ b/Capstone Status_11_March_2022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pogeorge\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FDF241-CEFA-43A7-9FDC-8970376D4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{08A1AF13-0A0E-4D99-AF9F-48CB37564179}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Model No</t>
   </si>
@@ -111,12 +110,19 @@
   </si>
   <si>
     <t>Final Report</t>
+  </si>
+  <si>
+    <t>IoU:.75
+mAP: .65</t>
+  </si>
+  <si>
+    <t>Work in progress to capture mAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,15 +175,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C02084A-3794-4CC9-AF57-681A77E4FA4D}" name="Table1" displayName="Table1" ref="F7:K29" totalsRowShown="0">
-  <autoFilter ref="F7:K29" xr:uid="{3C02084A-3794-4CC9-AF57-681A77E4FA4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F7:K29" totalsRowShown="0">
+  <autoFilter ref="F7:K29"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD7CC07C-7782-4140-A40E-45CDD9A7FF40}" name="Model No"/>
-    <tableColumn id="2" xr3:uid="{33EDAF55-B78D-4234-8DED-580177C79EA2}" name="Model Name"/>
-    <tableColumn id="3" xr3:uid="{7F997AE3-FE4E-4AEE-9304-02A7B2095D53}" name="Accuracy/IOU Score"/>
-    <tableColumn id="4" xr3:uid="{9E31B627-1D2C-4453-B9C7-BBC90961114E}" name="One Line Status"/>
-    <tableColumn id="5" xr3:uid="{F4B09069-E923-4582-9986-4B08A597C3B5}" name="Detailed Status"/>
-    <tableColumn id="6" xr3:uid="{063DF5AF-EF7E-46E5-BAFA-75E36E17E718}" name="Owner"/>
+    <tableColumn id="1" name="Model No"/>
+    <tableColumn id="2" name="Model Name"/>
+    <tableColumn id="3" name="Accuracy/IOU Score"/>
+    <tableColumn id="4" name="One Line Status"/>
+    <tableColumn id="5" name="Detailed Status"/>
+    <tableColumn id="6" name="Owner"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -479,24 +485,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80878782-0E7F-4108-B10C-2A0C9E013CBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -516,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F9">
         <v>1</v>
       </c>
@@ -527,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:11" ht="58" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>2</v>
       </c>
@@ -550,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:11" ht="29" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>3</v>
       </c>
@@ -567,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:11" ht="29" x14ac:dyDescent="0.35">
       <c r="F15">
         <v>4</v>
       </c>
@@ -584,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:11" ht="29" x14ac:dyDescent="0.35">
       <c r="F18">
         <v>5</v>
       </c>
@@ -592,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -601,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F20">
         <v>6</v>
       </c>
